--- a/biology/Zoologie/Gerbille_du_Niger/Gerbille_du_Niger.xlsx
+++ b/biology/Zoologie/Gerbille_du_Niger/Gerbille_du_Niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus nigeriae
-La Gerbille du Niger[1] (Gerbillus nigeriae ou Gerbillus (Gerbillus) nigeriae) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans l'extrême ouest de l'Afrique.
+La Gerbille du Niger (Gerbillus nigeriae ou Gerbillus (Gerbillus) nigeriae) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans l'extrême ouest de l'Afrique.
 Synonyme : Gerbillus dalloni Heim de Balsac, 1936
 </t>
         </is>
